--- a/metrics/R2/average time/Amputación extremidades inferiores.xlsx
+++ b/metrics/R2/average time/Amputación extremidades inferiores.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9048950560317862</v>
+        <v>0.9043840994443357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9048950560317862</v>
+        <v>0.9043840994443357</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9048950560317862</v>
+        <v>0.9043840994443357</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9943347821518321</v>
+        <v>0.9941098596204482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.99393435282297</v>
+        <v>0.9942456305563039</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9940335043889796</v>
+        <v>0.9941832866454704</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.995144529894664</v>
+        <v>0.9951591338178399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.995144529894664</v>
+        <v>0.9951591338178399</v>
       </c>
       <c r="D4" t="n">
-        <v>0.995144529894664</v>
+        <v>0.9951591338178399</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9850277839156065</v>
+        <v>0.9834616164959226</v>
       </c>
       <c r="C5" t="n">
-        <v>0.984151486532484</v>
+        <v>0.9849517894852901</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9843573581379104</v>
+        <v>0.9838204472404791</v>
       </c>
     </row>
   </sheetData>
